--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.508748104099792</v>
+        <v>0.5814853333333333</v>
       </c>
       <c r="H2">
-        <v>0.508748104099792</v>
+        <v>1.744456</v>
       </c>
       <c r="I2">
-        <v>0.008951045288761223</v>
+        <v>0.01013679721902723</v>
       </c>
       <c r="J2">
-        <v>0.008951045288761223</v>
+        <v>0.01013679721902723</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.2587303494116</v>
+        <v>39.00350066666667</v>
       </c>
       <c r="N2">
-        <v>32.2587303494116</v>
+        <v>117.010502</v>
       </c>
       <c r="O2">
-        <v>0.9942035944346669</v>
+        <v>0.98996865118361</v>
       </c>
       <c r="P2">
-        <v>0.9942035944346669</v>
+        <v>0.9899686511836098</v>
       </c>
       <c r="Q2">
-        <v>16.41156790592957</v>
+        <v>22.67996358632356</v>
       </c>
       <c r="R2">
-        <v>16.41156790592957</v>
+        <v>204.119672276912</v>
       </c>
       <c r="S2">
-        <v>0.008899161400033898</v>
+        <v>0.01003511147024216</v>
       </c>
       <c r="T2">
-        <v>0.008899161400033898</v>
+        <v>0.01003511147024215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.508748104099792</v>
+        <v>0.5814853333333333</v>
       </c>
       <c r="H3">
-        <v>0.508748104099792</v>
+        <v>1.744456</v>
       </c>
       <c r="I3">
-        <v>0.008951045288761223</v>
+        <v>0.01013679721902723</v>
       </c>
       <c r="J3">
-        <v>0.008951045288761223</v>
+        <v>0.01013679721902723</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.188074842189879</v>
+        <v>0.00545</v>
       </c>
       <c r="N3">
-        <v>0.188074842189879</v>
+        <v>0.01635</v>
       </c>
       <c r="O3">
-        <v>0.005796405565333139</v>
+        <v>0.0001383293565123925</v>
       </c>
       <c r="P3">
-        <v>0.005796405565333139</v>
+        <v>0.0001383293565123925</v>
       </c>
       <c r="Q3">
-        <v>0.0956827193929685</v>
+        <v>0.003169095066666666</v>
       </c>
       <c r="R3">
-        <v>0.0956827193929685</v>
+        <v>0.0285218556</v>
       </c>
       <c r="S3">
-        <v>5.188388872732453E-05</v>
+        <v>1.402216636404647E-06</v>
       </c>
       <c r="T3">
-        <v>5.188388872732453E-05</v>
+        <v>1.402216636404647E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.3232419114101</v>
+        <v>0.5814853333333333</v>
       </c>
       <c r="H4">
-        <v>51.3232419114101</v>
+        <v>1.744456</v>
       </c>
       <c r="I4">
-        <v>0.9029943483090963</v>
+        <v>0.01013679721902723</v>
       </c>
       <c r="J4">
-        <v>0.9029943483090963</v>
+        <v>0.01013679721902723</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>32.2587303494116</v>
+        <v>0.028296</v>
       </c>
       <c r="N4">
-        <v>32.2587303494116</v>
+        <v>0.08488800000000001</v>
       </c>
       <c r="O4">
-        <v>0.9942035944346669</v>
+        <v>0.0007181958663990202</v>
       </c>
       <c r="P4">
-        <v>0.9942035944346669</v>
+        <v>0.0007181958663990201</v>
       </c>
       <c r="Q4">
-        <v>1655.622621477798</v>
+        <v>0.016453708992</v>
       </c>
       <c r="R4">
-        <v>1655.622621477798</v>
+        <v>0.148083380928</v>
       </c>
       <c r="S4">
-        <v>0.8977602268430931</v>
+        <v>7.280205861230441E-06</v>
       </c>
       <c r="T4">
-        <v>0.8977602268430931</v>
+        <v>7.280205861230438E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.3232419114101</v>
+        <v>0.5814853333333333</v>
       </c>
       <c r="H5">
-        <v>51.3232419114101</v>
+        <v>1.744456</v>
       </c>
       <c r="I5">
-        <v>0.9029943483090963</v>
+        <v>0.01013679721902723</v>
       </c>
       <c r="J5">
-        <v>0.9029943483090963</v>
+        <v>0.01013679721902723</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.188074842189879</v>
+        <v>0.07360899999999999</v>
       </c>
       <c r="N5">
-        <v>0.188074842189879</v>
+        <v>0.220827</v>
       </c>
       <c r="O5">
-        <v>0.005796405565333139</v>
+        <v>0.00186830928504967</v>
       </c>
       <c r="P5">
-        <v>0.005796405565333139</v>
+        <v>0.00186830928504967</v>
       </c>
       <c r="Q5">
-        <v>9.652610623161438</v>
+        <v>0.04280255390133333</v>
       </c>
       <c r="R5">
-        <v>9.652610623161438</v>
+        <v>0.385222985112</v>
       </c>
       <c r="S5">
-        <v>0.005234121466003216</v>
+        <v>1.893867236497425E-05</v>
       </c>
       <c r="T5">
-        <v>0.005234121466003216</v>
+        <v>1.893867236497425E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0504870483472149</v>
+        <v>0.5814853333333333</v>
       </c>
       <c r="H6">
-        <v>0.0504870483472149</v>
+        <v>1.744456</v>
       </c>
       <c r="I6">
-        <v>0.0008882821431864336</v>
+        <v>0.01013679721902723</v>
       </c>
       <c r="J6">
-        <v>0.0008882821431864336</v>
+        <v>0.01013679721902723</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.2587303494116</v>
+        <v>0.2878673333333333</v>
       </c>
       <c r="N6">
-        <v>32.2587303494116</v>
+        <v>0.863602</v>
       </c>
       <c r="O6">
-        <v>0.9942035944346669</v>
+        <v>0.007306514308429066</v>
       </c>
       <c r="P6">
-        <v>0.9942035944346669</v>
+        <v>0.007306514308429065</v>
       </c>
       <c r="Q6">
-        <v>1.628648078770512</v>
+        <v>0.1673906322791111</v>
       </c>
       <c r="R6">
-        <v>1.628648078770512</v>
+        <v>1.506515690512</v>
       </c>
       <c r="S6">
-        <v>0.0008831332996280817</v>
+        <v>7.406465392246643E-05</v>
       </c>
       <c r="T6">
-        <v>0.0008831332996280817</v>
+        <v>7.406465392246642E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0504870483472149</v>
+        <v>51.50345966666666</v>
       </c>
       <c r="H7">
-        <v>0.0504870483472149</v>
+        <v>154.510379</v>
       </c>
       <c r="I7">
-        <v>0.0008882821431864336</v>
+        <v>0.8978388564446702</v>
       </c>
       <c r="J7">
-        <v>0.0008882821431864336</v>
+        <v>0.8978388564446701</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.188074842189879</v>
+        <v>39.00350066666667</v>
       </c>
       <c r="N7">
-        <v>0.188074842189879</v>
+        <v>117.010502</v>
       </c>
       <c r="O7">
-        <v>0.005796405565333139</v>
+        <v>0.98996865118361</v>
       </c>
       <c r="P7">
-        <v>0.005796405565333139</v>
+        <v>0.9899686511836098</v>
       </c>
       <c r="Q7">
-        <v>0.009495343650535233</v>
+        <v>2008.815223444473</v>
       </c>
       <c r="R7">
-        <v>0.009495343650535233</v>
+        <v>18079.33701100026</v>
       </c>
       <c r="S7">
-        <v>5.148843558351892E-06</v>
+        <v>0.888832321694765</v>
       </c>
       <c r="T7">
-        <v>5.148843558351892E-06</v>
+        <v>0.8888323216947647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.95424844557219</v>
+        <v>51.50345966666666</v>
       </c>
       <c r="H8">
-        <v>4.95424844557219</v>
+        <v>154.510379</v>
       </c>
       <c r="I8">
-        <v>0.08716632425895599</v>
+        <v>0.8978388564446702</v>
       </c>
       <c r="J8">
-        <v>0.08716632425895599</v>
+        <v>0.8978388564446701</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>32.2587303494116</v>
+        <v>0.00545</v>
       </c>
       <c r="N8">
-        <v>32.2587303494116</v>
+        <v>0.01635</v>
       </c>
       <c r="O8">
-        <v>0.9942035944346669</v>
+        <v>0.0001383293565123925</v>
       </c>
       <c r="P8">
-        <v>0.9942035944346669</v>
+        <v>0.0001383293565123925</v>
       </c>
       <c r="Q8">
-        <v>159.8177646897048</v>
+        <v>0.2806938551833333</v>
       </c>
       <c r="R8">
-        <v>159.8177646897048</v>
+        <v>2.52624469665</v>
       </c>
       <c r="S8">
-        <v>0.08666107289191174</v>
+        <v>0.0001241974712638136</v>
       </c>
       <c r="T8">
-        <v>0.08666107289191174</v>
+        <v>0.0001241974712638136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>51.50345966666666</v>
+      </c>
+      <c r="H9">
+        <v>154.510379</v>
+      </c>
+      <c r="I9">
+        <v>0.8978388564446702</v>
+      </c>
+      <c r="J9">
+        <v>0.8978388564446701</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.028296</v>
+      </c>
+      <c r="N9">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P9">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q9">
+        <v>1.457341894728</v>
+      </c>
+      <c r="R9">
+        <v>13.116077052552</v>
+      </c>
+      <c r="S9">
+        <v>0.0006448241553909855</v>
+      </c>
+      <c r="T9">
+        <v>0.0006448241553909852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>51.50345966666666</v>
+      </c>
+      <c r="H10">
+        <v>154.510379</v>
+      </c>
+      <c r="I10">
+        <v>0.8978388564446702</v>
+      </c>
+      <c r="J10">
+        <v>0.8978388564446701</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.220827</v>
+      </c>
+      <c r="O10">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P10">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q10">
+        <v>3.791118162603666</v>
+      </c>
+      <c r="R10">
+        <v>34.120063463433</v>
+      </c>
+      <c r="S10">
+        <v>0.001677440671973955</v>
+      </c>
+      <c r="T10">
+        <v>0.001677440671973955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>51.50345966666666</v>
+      </c>
+      <c r="H11">
+        <v>154.510379</v>
+      </c>
+      <c r="I11">
+        <v>0.8978388564446702</v>
+      </c>
+      <c r="J11">
+        <v>0.8978388564446701</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.863602</v>
+      </c>
+      <c r="O11">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P11">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q11">
+        <v>14.82616359168422</v>
+      </c>
+      <c r="R11">
+        <v>133.435472325158</v>
+      </c>
+      <c r="S11">
+        <v>0.006560072451276574</v>
+      </c>
+      <c r="T11">
+        <v>0.006560072451276572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.008161333333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.024484</v>
+      </c>
+      <c r="I12">
+        <v>0.0001422732032855301</v>
+      </c>
+      <c r="J12">
+        <v>0.0001422732032855301</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>39.00350066666667</v>
+      </c>
+      <c r="N12">
+        <v>117.010502</v>
+      </c>
+      <c r="O12">
+        <v>0.98996865118361</v>
+      </c>
+      <c r="P12">
+        <v>0.9899686511836098</v>
+      </c>
+      <c r="Q12">
+        <v>0.3183205701075555</v>
+      </c>
+      <c r="R12">
+        <v>2.864885130968</v>
+      </c>
+      <c r="S12">
+        <v>0.0001408460111561478</v>
+      </c>
+      <c r="T12">
+        <v>0.0001408460111561478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.008161333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.024484</v>
+      </c>
+      <c r="I13">
+        <v>0.0001422732032855301</v>
+      </c>
+      <c r="J13">
+        <v>0.0001422732032855301</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.00545</v>
+      </c>
+      <c r="N13">
+        <v>0.01635</v>
+      </c>
+      <c r="O13">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="P13">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="Q13">
+        <v>4.447926666666667E-05</v>
+      </c>
+      <c r="R13">
+        <v>0.0004003134</v>
+      </c>
+      <c r="S13">
+        <v>1.968056065944419E-08</v>
+      </c>
+      <c r="T13">
+        <v>1.968056065944419E-08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.008161333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.024484</v>
+      </c>
+      <c r="I14">
+        <v>0.0001422732032855301</v>
+      </c>
+      <c r="J14">
+        <v>0.0001422732032855301</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.028296</v>
+      </c>
+      <c r="N14">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P14">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q14">
+        <v>0.000230933088</v>
+      </c>
+      <c r="R14">
+        <v>0.002078397792</v>
+      </c>
+      <c r="S14">
+        <v>1.021800264990152E-07</v>
+      </c>
+      <c r="T14">
+        <v>1.021800264990152E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.008161333333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.024484</v>
+      </c>
+      <c r="I15">
+        <v>0.0001422732032855301</v>
+      </c>
+      <c r="J15">
+        <v>0.0001422732032855301</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.220827</v>
+      </c>
+      <c r="O15">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P15">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q15">
+        <v>0.0006007475853333332</v>
+      </c>
+      <c r="R15">
+        <v>0.005406728267999999</v>
+      </c>
+      <c r="S15">
+        <v>2.658103467121152E-07</v>
+      </c>
+      <c r="T15">
+        <v>2.658103467121152E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.008161333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.024484</v>
+      </c>
+      <c r="I16">
+        <v>0.0001422732032855301</v>
+      </c>
+      <c r="J16">
+        <v>0.0001422732032855301</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.863602</v>
+      </c>
+      <c r="O16">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P16">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q16">
+        <v>0.002349381263111111</v>
+      </c>
+      <c r="R16">
+        <v>0.021144431368</v>
+      </c>
+      <c r="S16">
+        <v>1.039521195511763E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.039521195511763E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.03994766666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.119843</v>
+      </c>
+      <c r="I17">
+        <v>0.0006963914189408506</v>
+      </c>
+      <c r="J17">
+        <v>0.0006963914189408506</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>39.00350066666667</v>
+      </c>
+      <c r="N17">
+        <v>117.010502</v>
+      </c>
+      <c r="O17">
+        <v>0.98996865118361</v>
+      </c>
+      <c r="P17">
+        <v>0.9899686511836098</v>
+      </c>
+      <c r="Q17">
+        <v>1.558098843465111</v>
+      </c>
+      <c r="R17">
+        <v>14.022889591186</v>
+      </c>
+      <c r="S17">
+        <v>0.0006894056737047142</v>
+      </c>
+      <c r="T17">
+        <v>0.000689405673704714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.03994766666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.119843</v>
+      </c>
+      <c r="I18">
+        <v>0.0006963914189408506</v>
+      </c>
+      <c r="J18">
+        <v>0.0006963914189408506</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.00545</v>
+      </c>
+      <c r="N18">
+        <v>0.01635</v>
+      </c>
+      <c r="O18">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="P18">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="Q18">
+        <v>0.0002177147833333333</v>
+      </c>
+      <c r="R18">
+        <v>0.00195943305</v>
+      </c>
+      <c r="S18">
+        <v>9.633137686283984E-08</v>
+      </c>
+      <c r="T18">
+        <v>9.633137686283983E-08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.03994766666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.119843</v>
+      </c>
+      <c r="I19">
+        <v>0.0006963914189408506</v>
+      </c>
+      <c r="J19">
+        <v>0.0006963914189408506</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.028296</v>
+      </c>
+      <c r="N19">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P19">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q19">
+        <v>0.001130359176</v>
+      </c>
+      <c r="R19">
+        <v>0.010173232584</v>
+      </c>
+      <c r="S19">
+        <v>5.001454384790673E-07</v>
+      </c>
+      <c r="T19">
+        <v>5.001454384790672E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.03994766666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.119843</v>
+      </c>
+      <c r="I20">
+        <v>0.0006963914189408506</v>
+      </c>
+      <c r="J20">
+        <v>0.0006963914189408506</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.220827</v>
+      </c>
+      <c r="O20">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P20">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q20">
+        <v>0.002940507795666666</v>
+      </c>
+      <c r="R20">
+        <v>0.026464570161</v>
+      </c>
+      <c r="S20">
+        <v>1.301074554036106E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.301074554036106E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.95424844557219</v>
-      </c>
-      <c r="H9">
-        <v>4.95424844557219</v>
-      </c>
-      <c r="I9">
-        <v>0.08716632425895599</v>
-      </c>
-      <c r="J9">
-        <v>0.08716632425895599</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.188074842189879</v>
-      </c>
-      <c r="N9">
-        <v>0.188074842189879</v>
-      </c>
-      <c r="O9">
-        <v>0.005796405565333139</v>
-      </c>
-      <c r="P9">
-        <v>0.005796405565333139</v>
-      </c>
-      <c r="Q9">
-        <v>0.9317694945704429</v>
-      </c>
-      <c r="R9">
-        <v>0.9317694945704429</v>
-      </c>
-      <c r="S9">
-        <v>0.0005052513670442454</v>
-      </c>
-      <c r="T9">
-        <v>0.0005052513670442454</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.03994766666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.119843</v>
+      </c>
+      <c r="I21">
+        <v>0.0006963914189408506</v>
+      </c>
+      <c r="J21">
+        <v>0.0006963914189408506</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.863602</v>
+      </c>
+      <c r="O21">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P21">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q21">
+        <v>0.01149962827622222</v>
+      </c>
+      <c r="R21">
+        <v>0.103496654486</v>
+      </c>
+      <c r="S21">
+        <v>5.088193866758545E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.088193866758545E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.059197</v>
+      </c>
+      <c r="H22">
+        <v>0.177591</v>
+      </c>
+      <c r="I22">
+        <v>0.001031957214698602</v>
+      </c>
+      <c r="J22">
+        <v>0.001031957214698602</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>39.00350066666667</v>
+      </c>
+      <c r="N22">
+        <v>117.010502</v>
+      </c>
+      <c r="O22">
+        <v>0.98996865118361</v>
+      </c>
+      <c r="P22">
+        <v>0.9899686511836098</v>
+      </c>
+      <c r="Q22">
+        <v>2.308890228964667</v>
+      </c>
+      <c r="R22">
+        <v>20.780012060682</v>
+      </c>
+      <c r="S22">
+        <v>0.001021605291914371</v>
+      </c>
+      <c r="T22">
+        <v>0.00102160529191437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.059197</v>
+      </c>
+      <c r="H23">
+        <v>0.177591</v>
+      </c>
+      <c r="I23">
+        <v>0.001031957214698602</v>
+      </c>
+      <c r="J23">
+        <v>0.001031957214698602</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.00545</v>
+      </c>
+      <c r="N23">
+        <v>0.01635</v>
+      </c>
+      <c r="O23">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="P23">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="Q23">
+        <v>0.00032262365</v>
+      </c>
+      <c r="R23">
+        <v>0.00290361285</v>
+      </c>
+      <c r="S23">
+        <v>1.427499774575786E-07</v>
+      </c>
+      <c r="T23">
+        <v>1.427499774575785E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.059197</v>
+      </c>
+      <c r="H24">
+        <v>0.177591</v>
+      </c>
+      <c r="I24">
+        <v>0.001031957214698602</v>
+      </c>
+      <c r="J24">
+        <v>0.001031957214698602</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.028296</v>
+      </c>
+      <c r="N24">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P24">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q24">
+        <v>0.001675038312</v>
+      </c>
+      <c r="R24">
+        <v>0.015075344808</v>
+      </c>
+      <c r="S24">
+        <v>7.411474058971825E-07</v>
+      </c>
+      <c r="T24">
+        <v>7.411474058971822E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.059197</v>
+      </c>
+      <c r="H25">
+        <v>0.177591</v>
+      </c>
+      <c r="I25">
+        <v>0.001031957214698602</v>
+      </c>
+      <c r="J25">
+        <v>0.001031957214698602</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.220827</v>
+      </c>
+      <c r="O25">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P25">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q25">
+        <v>0.004357431972999999</v>
+      </c>
+      <c r="R25">
+        <v>0.039216887757</v>
+      </c>
+      <c r="S25">
+        <v>1.928015245995395E-06</v>
+      </c>
+      <c r="T25">
+        <v>1.928015245995394E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.059197</v>
+      </c>
+      <c r="H26">
+        <v>0.177591</v>
+      </c>
+      <c r="I26">
+        <v>0.001031957214698602</v>
+      </c>
+      <c r="J26">
+        <v>0.001031957214698602</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.863602</v>
+      </c>
+      <c r="O26">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P26">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q26">
+        <v>0.01704088253133333</v>
+      </c>
+      <c r="R26">
+        <v>0.153367942782</v>
+      </c>
+      <c r="S26">
+        <v>7.540010154881944E-06</v>
+      </c>
+      <c r="T26">
+        <v>7.540010154881942E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.171561333333333</v>
+      </c>
+      <c r="H27">
+        <v>15.514684</v>
+      </c>
+      <c r="I27">
+        <v>0.09015372449937763</v>
+      </c>
+      <c r="J27">
+        <v>0.0901537244993776</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>39.00350066666667</v>
+      </c>
+      <c r="N27">
+        <v>117.010502</v>
+      </c>
+      <c r="O27">
+        <v>0.98996865118361</v>
+      </c>
+      <c r="P27">
+        <v>0.9899686511836098</v>
+      </c>
+      <c r="Q27">
+        <v>201.7089959123742</v>
+      </c>
+      <c r="R27">
+        <v>1815.380963211368</v>
+      </c>
+      <c r="S27">
+        <v>0.08924936104182764</v>
+      </c>
+      <c r="T27">
+        <v>0.0892493610418276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.171561333333333</v>
+      </c>
+      <c r="H28">
+        <v>15.514684</v>
+      </c>
+      <c r="I28">
+        <v>0.09015372449937763</v>
+      </c>
+      <c r="J28">
+        <v>0.0901537244993776</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.00545</v>
+      </c>
+      <c r="N28">
+        <v>0.01635</v>
+      </c>
+      <c r="O28">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="P28">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="Q28">
+        <v>0.02818500926666666</v>
+      </c>
+      <c r="R28">
+        <v>0.2536650834</v>
+      </c>
+      <c r="S28">
+        <v>1.247090669719443E-05</v>
+      </c>
+      <c r="T28">
+        <v>1.247090669719442E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.171561333333333</v>
+      </c>
+      <c r="H29">
+        <v>15.514684</v>
+      </c>
+      <c r="I29">
+        <v>0.09015372449937763</v>
+      </c>
+      <c r="J29">
+        <v>0.0901537244993776</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.028296</v>
+      </c>
+      <c r="N29">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P29">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q29">
+        <v>0.146334499488</v>
+      </c>
+      <c r="R29">
+        <v>1.317010495392</v>
+      </c>
+      <c r="S29">
+        <v>6.474803227592908E-05</v>
+      </c>
+      <c r="T29">
+        <v>6.474803227592905E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.171561333333333</v>
+      </c>
+      <c r="H30">
+        <v>15.514684</v>
+      </c>
+      <c r="I30">
+        <v>0.09015372449937763</v>
+      </c>
+      <c r="J30">
+        <v>0.0901537244993776</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N30">
+        <v>0.220827</v>
+      </c>
+      <c r="O30">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P30">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q30">
+        <v>0.3806734581853333</v>
+      </c>
+      <c r="R30">
+        <v>3.426061123668</v>
+      </c>
+      <c r="S30">
+        <v>0.0001684350405639972</v>
+      </c>
+      <c r="T30">
+        <v>0.0001684350405639971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.171561333333333</v>
+      </c>
+      <c r="H31">
+        <v>15.514684</v>
+      </c>
+      <c r="I31">
+        <v>0.09015372449937763</v>
+      </c>
+      <c r="J31">
+        <v>0.0901537244993776</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.863602</v>
+      </c>
+      <c r="O31">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P31">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q31">
+        <v>1.488723570196444</v>
+      </c>
+      <c r="R31">
+        <v>13.398512131768</v>
+      </c>
+      <c r="S31">
+        <v>0.0006587094780128747</v>
+      </c>
+      <c r="T31">
+        <v>0.0006587094780128745</v>
       </c>
     </row>
   </sheetData>
